--- a/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6855767360621526</v>
+        <v>1.067129961694161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.812247769443049</v>
+        <v>4.659933958196074</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.471551370685892</v>
+        <v>4.273387411904633</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3958484003133184</v>
+        <v>-0.442413508658523</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1541997741490725</v>
+        <v>0.2267912720253134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.325034435925128</v>
+        <v>1.39883845100594</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.398105853888752</v>
+        <v>1.504291464167608</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07863777217357235</v>
+        <v>-0.07061776922082313</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.157373001454026</v>
+        <v>5.310555067462289</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.935359311692089</v>
+        <v>10.00030463443217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.534682243974011</v>
+        <v>9.550935895375563</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.858552482116169</v>
+        <v>3.910164925257567</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.419347430867401</v>
+        <v>2.431437906674669</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.780150387875455</v>
+        <v>6.10333708561232</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8.397396751779516</v>
+        <v>8.976260294891562</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.051407513802168</v>
+        <v>1.15743142652485</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.562428809747426</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.89461881860504</v>
+        <v>3.894618818605041</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.799046970187765</v>
@@ -749,7 +749,7 @@
         <v>3.232726017107262</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.526813001834986</v>
+        <v>1.526813001834987</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.441753847689489</v>
+        <v>2.318609837672992</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.207692508716041</v>
+        <v>2.486154709197829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.894278988343931</v>
+        <v>3.709578240950655</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.179234791079454</v>
+        <v>2.420570983182114</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7184730836653801</v>
+        <v>0.7367081623426209</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4381468349252686</v>
+        <v>0.5601075185548294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.566873751025362</v>
+        <v>1.504937879289776</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5730904877903846</v>
+        <v>0.6496677786744326</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.235184570307446</v>
+        <v>6.071224677076032</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.553583624388533</v>
+        <v>6.55501696765792</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.711672494692213</v>
+        <v>7.409951946386216</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.435723164574989</v>
+        <v>5.500414618181289</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.573298022272241</v>
+        <v>3.697762404952846</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.281946846155423</v>
+        <v>2.418556450027644</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.08266054104284</v>
+        <v>6.071686700121204</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.910872074804357</v>
+        <v>2.94799166545641</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.468138711085059</v>
+        <v>2.425227049880081</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.731880285361886</v>
+        <v>2.955959937542072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.451565398268737</v>
+        <v>1.411920661232773</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.768456587078123</v>
+        <v>2.858175231057889</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9916592062832122</v>
+        <v>1.002398706228705</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6250507819592868</v>
+        <v>0.7563569275580216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4538313839521333</v>
+        <v>0.4843139385892721</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5715561089897917</v>
+        <v>0.6431413985180366</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.233481176159376</v>
+        <v>6.242068273518021</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.361067943422303</v>
+        <v>7.320784122757344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.442180327042867</v>
+        <v>5.385176440327369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.126052573592355</v>
+        <v>6.934196081996398</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>7.208838635849506</v>
+        <v>7.196483287640755</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>5.774662897955814</v>
+        <v>5.808172093323668</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.172889971846685</v>
+        <v>4.093185910694443</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.998894945485532</v>
+        <v>2.956767609673692</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.44122254003898</v>
+        <v>3.514388080026319</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.436656375080147</v>
+        <v>2.435465378952811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.307444694129063</v>
+        <v>2.313030920523064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.8874998300834</v>
+        <v>3.640024411015521</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.270078327075305</v>
+        <v>1.326404303164692</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.451050647672722</v>
+        <v>0.4264899313346022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5517804011160902</v>
+        <v>0.5555281508849352</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.8377961746052996</v>
+        <v>0.8067659162833646</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.212393742197158</v>
+        <v>7.28078577524495</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.070576231607527</v>
+        <v>6.838593175242544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.316285232009372</v>
+        <v>6.277391184564035</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.424062488073248</v>
+        <v>7.27593290591887</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6.137642464085606</v>
+        <v>5.534620239433674</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.292028247624249</v>
+        <v>2.253933789396018</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.680127078509455</v>
+        <v>2.830444067887901</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.741274998397774</v>
+        <v>2.702381427220207</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.395792087647219</v>
+        <v>3.39518189521986</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.104312447965839</v>
+        <v>3.960478263885763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.870485447226018</v>
+        <v>3.889409551329162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.322469341867423</v>
+        <v>3.179765028200274</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.297666808556689</v>
+        <v>1.321036077538382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.084142644611688</v>
+        <v>1.020214152398302</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.488023451829572</v>
+        <v>1.498525595719035</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.8287377365617876</v>
+        <v>0.8208718964646869</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.316635208909421</v>
+        <v>5.371118339755648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.347291713494703</v>
+        <v>6.271620343190808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.908975444070165</v>
+        <v>6.005516167170255</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.141270137897526</v>
+        <v>5.178474738591185</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.949560017332101</v>
+        <v>3.096555725901951</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.340639235810836</v>
+        <v>2.320374566639767</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.206510637717592</v>
+        <v>3.28197155445494</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.677008154108517</v>
+        <v>1.743321879638269</v>
       </c>
     </row>
     <row r="19">
